--- a/14.5.2019.ASL.xlsx
+++ b/14.5.2019.ASL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>C171215AS1</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Analysis (23.05.2019) by J. Studer</t>
+  </si>
+  <si>
+    <t>Standard normalisation for each sample</t>
+  </si>
+  <si>
+    <t>F14C</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="R15" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19:V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1369,16 +1375,16 @@
     <col min="18" max="18" width="13.46484375" customWidth="1"/>
     <col min="19" max="19" width="19.19921875" customWidth="1"/>
     <col min="20" max="20" width="13.46484375" customWidth="1"/>
-    <col min="21" max="21" width="15.265625" customWidth="1"/>
-    <col min="22" max="22" width="10.265625" customWidth="1"/>
+    <col min="21" max="25" width="15.265625" customWidth="1"/>
+    <col min="26" max="26" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="14.65" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="14.65" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>41</v>
       </c>
@@ -1387,12 +1393,12 @@
         <v>1.602E-19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1406,10 +1412,13 @@
         <v>25</v>
       </c>
       <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>46</v>
@@ -1482,8 +1491,20 @@
       <c r="Y5" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1557,7 @@
         <v>6.0466629441170758E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1610,7 @@
         <v>5.7092133691971764E-10</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>5.5770167688904732E-10</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>5.5382716158799798E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>5.0093906650401753E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -1821,23 +1842,39 @@
         <v>7.0704732372417466E-9</v>
       </c>
       <c r="V11" s="20">
+        <f>T11*1.34066/$B$41</f>
+        <v>0.25632515242195431</v>
+      </c>
+      <c r="W11" s="20">
+        <f>V11*SQRT((U11/T11)^2+$D$42/($B$41^2))</f>
+        <v>6.2664835874159898E-4</v>
+      </c>
+      <c r="X11" s="20">
+        <f>-8033*LN(V11)</f>
+        <v>10935.391291217378</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>8033*W11/V11</f>
+        <v>19.638596595798269</v>
+      </c>
+      <c r="Z11" s="20">
         <f>$B$44*1.34066/$B$41</f>
         <v>0.25626347832723329</v>
       </c>
-      <c r="W11" s="20">
-        <f>V11*SQRT((U11/T11)^2+(U12/T12)^2+$D$42/($B$41^2))</f>
+      <c r="AA11" s="20">
+        <f>Z11*SQRT((U11/T11)^2+(U12/T12)^2+$D$42/($B$41^2))</f>
         <v>8.5030956026277795E-4</v>
       </c>
-      <c r="X11" s="20">
-        <f>-8033*LN(V11)</f>
+      <c r="AB11" s="20">
+        <f>-8033*LN(Z11)</f>
         <v>10937.324334502247</v>
       </c>
-      <c r="Y11" s="20">
-        <f>-8033*W11/V11</f>
-        <v>-26.654350991321145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AC11" s="20">
+        <f>8033*AA11/Z11</f>
+        <v>26.654350991321145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
@@ -1909,8 +1946,24 @@
         <f t="shared" ref="U12:U33" si="10">R12*(0.975/(1+S12/1000))^2</f>
         <v>7.0642020311831849E-9</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V12" s="20">
+        <f t="shared" ref="V12:V33" si="11">T12*1.34066/$B$41</f>
+        <v>0.25620185135368279</v>
+      </c>
+      <c r="W12" s="20">
+        <f t="shared" ref="W12:W33" si="12">V12*SQRT((U12/T12)^2+$D$42/($B$41^2))</f>
+        <v>6.2613254422493633E-4</v>
+      </c>
+      <c r="X12" s="20">
+        <f t="shared" ref="X12:X33" si="13">-8033*LN(V12)</f>
+        <v>10939.256365616335</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" ref="Y12:Y33" si="14">8033*W12/V12</f>
+        <v>19.631875028160731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +2036,7 @@
         <v>1.608902536885226E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2109,7 @@
         <v>1.6082415745188993E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2182,7 @@
         <v>1.5904464306597347E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2255,7 @@
         <v>1.5827222145777614E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2328,7 @@
         <v>1.6266774126995306E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2401,7 @@
         <v>1.5685284281127505E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2421,23 +2474,39 @@
         <v>7.354307264655204E-9</v>
       </c>
       <c r="V19" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27630200052098602</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5558394948354751E-4</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="13"/>
+        <v>10332.533060096826</v>
+      </c>
+      <c r="Y19" s="13">
+        <f t="shared" si="14"/>
+        <v>19.059962853223514</v>
+      </c>
+      <c r="Z19" s="13">
         <f>$B$45*1.34066/$B$41</f>
         <v>0.27532486214436441</v>
       </c>
-      <c r="W19" s="13">
-        <f>V19*SQRT((U19/T19)^2+(U20/T20)^2+(U21/T21)^2+(U22/T22)^2+(U23/T23)^2+(U24/T24)^2+(U25/T25)^2+(U26/T26)^2+(U27/T27)^2+(U28/T28)^2+(U29/T29)^2+(U30/T30)^2+(U31/T31)^2+(U32/T32)^2+(U33/T33)^2+$D$42/($B$41^2))</f>
+      <c r="AA19" s="13">
+        <f>Z19*SQRT((U19/T19)^2+(U20/T20)^2+(U21/T21)^2+(U22/T22)^2+(U23/T23)^2+(U24/T24)^2+(U25/T25)^2+(U26/T26)^2+(U27/T27)^2+(U28/T28)^2+(U29/T29)^2+(U30/T30)^2+(U31/T31)^2+(U32/T32)^2+(U33/T33)^2+$D$42/($B$41^2))</f>
         <v>2.3974405701219208E-3</v>
       </c>
-      <c r="X19" s="13">
-        <f>-8033*LN(V19)</f>
+      <c r="AB19" s="13">
+        <f>-8033*LN(Z19)</f>
         <v>10360.992010595777</v>
       </c>
-      <c r="Y19" s="13">
-        <f>-8033*W19/V19</f>
-        <v>-69.948786861432339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AC19" s="13">
+        <f>8033*AA19/Z19</f>
+        <v>69.948786861432339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2509,8 +2578,24 @@
         <f t="shared" si="10"/>
         <v>9.8789945850303555E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V20" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27811504209113441</v>
+      </c>
+      <c r="W20" s="13">
+        <f t="shared" si="12"/>
+        <v>8.4780400651487942E-4</v>
+      </c>
+      <c r="X20" s="13">
+        <f t="shared" si="13"/>
+        <v>10279.994217562818</v>
+      </c>
+      <c r="Y20" s="13">
+        <f t="shared" si="14"/>
+        <v>24.487742673416243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +2667,24 @@
         <f t="shared" si="10"/>
         <v>7.2915127976896161E-9</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V21" s="13">
+        <f t="shared" si="11"/>
+        <v>0.2738618765220453</v>
+      </c>
+      <c r="W21" s="13">
+        <f t="shared" si="12"/>
+        <v>6.4995422726565617E-4</v>
+      </c>
+      <c r="X21" s="13">
+        <f t="shared" si="13"/>
+        <v>10403.790536038037</v>
+      </c>
+      <c r="Y21" s="13">
+        <f t="shared" si="14"/>
+        <v>19.064655416558974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2655,8 +2756,24 @@
         <f t="shared" si="10"/>
         <v>7.343832244817877E-9</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V22" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27406052022820743</v>
+      </c>
+      <c r="W22" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5392044445982203E-4</v>
+      </c>
+      <c r="X22" s="13">
+        <f t="shared" si="13"/>
+        <v>10397.96597047556</v>
+      </c>
+      <c r="Y22" s="13">
+        <f t="shared" si="14"/>
+        <v>19.167090998629348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2728,8 +2845,24 @@
         <f t="shared" si="10"/>
         <v>7.2651048485116378E-9</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V23" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27402726163483493</v>
+      </c>
+      <c r="W23" s="13">
+        <f t="shared" si="12"/>
+        <v>6.4805922330963769E-4</v>
+      </c>
+      <c r="X23" s="13">
+        <f t="shared" si="13"/>
+        <v>10398.940873729125</v>
+      </c>
+      <c r="Y23" s="13">
+        <f t="shared" si="14"/>
+        <v>18.997597938936376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -2801,8 +2934,24 @@
         <f t="shared" si="10"/>
         <v>7.7593564289882415E-9</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V24" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27499796658526571</v>
+      </c>
+      <c r="W24" s="13">
+        <f t="shared" si="12"/>
+        <v>6.8530453275036549E-4</v>
+      </c>
+      <c r="X24" s="13">
+        <f t="shared" si="13"/>
+        <v>10370.535326620489</v>
+      </c>
+      <c r="Y24" s="13">
+        <f t="shared" si="14"/>
+        <v>20.018516427381631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2874,8 +3023,24 @@
         <f t="shared" si="10"/>
         <v>7.4251581447748873E-9</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V25" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27356538390912155</v>
+      </c>
+      <c r="W25" s="13">
+        <f t="shared" si="12"/>
+        <v>6.597793020274755E-4</v>
+      </c>
+      <c r="X25" s="13">
+        <f t="shared" si="13"/>
+        <v>10412.4920588326</v>
+      </c>
+      <c r="Y25" s="13">
+        <f t="shared" si="14"/>
+        <v>19.373822292323993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -2947,8 +3112,24 @@
         <f t="shared" si="10"/>
         <v>7.2726618216311938E-9</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V26" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27538092902645761</v>
+      </c>
+      <c r="W26" s="13">
+        <f t="shared" si="12"/>
+        <v>6.491585691809663E-4</v>
+      </c>
+      <c r="X26" s="13">
+        <f t="shared" si="13"/>
+        <v>10359.35634497311</v>
+      </c>
+      <c r="Y26" s="13">
+        <f t="shared" si="14"/>
+        <v>18.936281479861275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -3020,8 +3201,24 @@
         <f t="shared" si="10"/>
         <v>7.348716835628268E-9</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V27" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27545808630190155</v>
+      </c>
+      <c r="W27" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5483482779239472E-4</v>
+      </c>
+      <c r="X27" s="13">
+        <f t="shared" si="13"/>
+        <v>10357.10594374717</v>
+      </c>
+      <c r="Y27" s="13">
+        <f t="shared" si="14"/>
+        <v>19.096510261423369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -3093,8 +3290,24 @@
         <f t="shared" si="10"/>
         <v>7.3136790078361644E-9</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V28" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27504895277349517</v>
+      </c>
+      <c r="W28" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5207052506986935E-4</v>
+      </c>
+      <c r="X28" s="13">
+        <f t="shared" si="13"/>
+        <v>10369.046100749729</v>
+      </c>
+      <c r="Y28" s="13">
+        <f t="shared" si="14"/>
+        <v>19.044182772074976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -3166,8 +3379,24 @@
         <f t="shared" si="10"/>
         <v>7.4171980031220896E-9</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V29" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27599653994783035</v>
+      </c>
+      <c r="W29" s="13">
+        <f t="shared" si="12"/>
+        <v>6.6013780338998798E-4</v>
+      </c>
+      <c r="X29" s="13">
+        <f t="shared" si="13"/>
+        <v>10341.418707458011</v>
+      </c>
+      <c r="Y29" s="13">
+        <f t="shared" si="14"/>
+        <v>19.213599473508399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -3239,8 +3468,24 @@
         <f t="shared" si="10"/>
         <v>7.3794430686929716E-9</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V30" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27501054510341566</v>
+      </c>
+      <c r="W30" s="13">
+        <f t="shared" si="12"/>
+        <v>6.5694223116011176E-4</v>
+      </c>
+      <c r="X30" s="13">
+        <f t="shared" si="13"/>
+        <v>10370.167902356434</v>
+      </c>
+      <c r="Y30" s="13">
+        <f t="shared" si="14"/>
+        <v>19.189143968732978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -3312,8 +3557,24 @@
         <f t="shared" si="10"/>
         <v>7.1147018934795003E-9</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V31" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27577334793455854</v>
+      </c>
+      <c r="W31" s="13">
+        <f t="shared" si="12"/>
+        <v>6.3762433255798868E-4</v>
+      </c>
+      <c r="X31" s="13">
+        <f t="shared" si="13"/>
+        <v>10347.91743665572</v>
+      </c>
+      <c r="Y31" s="13">
+        <f t="shared" si="14"/>
+        <v>18.573354901046457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -3385,8 +3646,24 @@
         <f t="shared" si="10"/>
         <v>7.7252381802171778E-9</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V32" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27794987438213326</v>
+      </c>
+      <c r="W32" s="13">
+        <f t="shared" si="12"/>
+        <v>6.8387018839831425E-4</v>
+      </c>
+      <c r="X32" s="13">
+        <f t="shared" si="13"/>
+        <v>10284.766294369392</v>
+      </c>
+      <c r="Y32" s="13">
+        <f t="shared" si="14"/>
+        <v>19.764460176913055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -3458,22 +3735,38 @@
         <f t="shared" si="10"/>
         <v>7.1996354584278037E-9</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V33" s="13">
+        <f t="shared" si="11"/>
+        <v>0.27569399788186694</v>
+      </c>
+      <c r="W33" s="13">
+        <f t="shared" si="12"/>
+        <v>6.4387290337844288E-4</v>
+      </c>
+      <c r="X33" s="13">
+        <f t="shared" si="13"/>
+        <v>10350.229156406695</v>
+      </c>
+      <c r="Y33" s="13">
+        <f t="shared" si="14"/>
+        <v>18.760767635773117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3482,7 +3775,7 @@
         <v>1.9936030510688751E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3491,7 +3784,7 @@
         <v>5.5761110726249755E-10</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3793,7 @@
         <v>1.0841207204933598E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -3509,7 +3802,7 @@
         <v>1.6477171454663985E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -3525,7 +3818,7 @@
         <v>2.550946876590891E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -3548,7 +3841,7 @@
         <v>0.93534508393413229</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -3557,7 +3850,7 @@
         <v>3.1495660868276752E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -3566,9 +3859,9 @@
         <v>3.3838370349562299E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
